--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Model_Training_Adv\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2314D-FC79-42DF-883C-94CB570E18A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A40C27-D45C-4C59-885D-53FEBB183C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1995" windowWidth="17295" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10632" yWindow="3648" windowWidth="12408" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -876,13 +876,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -894,7 +894,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -961,23 +961,23 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -987,7 +987,7 @@
       </c>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>9</v>
       </c>
